--- a/data/harpur-lang.xlsx
+++ b/data/harpur-lang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelgfalk/github/articles/harpur-dunlop-wulatji/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E6818D-7DE3-4243-972A-80B900AA1063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8053B67-1B3F-6147-B325-31FBFB069990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11660" yWindow="500" windowWidth="17140" windowHeight="16020" xr2:uid="{FC4BB2E0-FBC5-FD45-B13A-126658919CD1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="15140" windowHeight="16020" xr2:uid="{FC4BB2E0-FBC5-FD45-B13A-126658919CD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,35 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={E30B1568-396D-DE40-8086-3F6C76070A41}</author>
+    <author>tc={BADB9721-4897-DE4B-B160-39F9BE0D2D9C}</author>
+  </authors>
+  <commentList>
+    <comment ref="H9" authorId="0" shapeId="0" xr:uid="{E30B1568-396D-DE40-8086-3F6C76070A41}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Is this the same thing as an Eastern Bettong?</t>
+      </text>
+    </comment>
+    <comment ref="C14" authorId="1" shapeId="0" xr:uid="{BADB9721-4897-DE4B-B160-39F9BE0D2D9C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Check this observation of Dixon’s</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="92">
   <si>
     <t>Harpur’s word</t>
   </si>
@@ -135,7 +162,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>wallaby</t>
+      <t>dingo</t>
     </r>
     <r>
       <rPr>
@@ -145,7 +172,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> wan-guy</t>
+      <t xml:space="preserve"> mayn</t>
     </r>
   </si>
   <si>
@@ -153,10 +180,58 @@
       <rPr>
         <i/>
         <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dog, wild dog</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> miri</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eastern bettong</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dirru</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
         <color rgb="FF006100"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>rock wallaby</t>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kangaroo rat</t>
     </r>
     <r>
       <rPr>
@@ -166,7 +241,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> wirayn</t>
+      <t xml:space="preserve"> dhurrawaay</t>
     </r>
   </si>
   <si>
@@ -174,12 +249,35 @@
       <rPr>
         <i/>
         <sz val="12"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kangaroo-rat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dhurawayi</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>dingo</t>
+      <t>wallaroo</t>
     </r>
     <r>
       <rPr>
@@ -189,7 +287,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> mayn</t>
+      <t xml:space="preserve"> yulama</t>
     </r>
   </si>
   <si>
@@ -202,7 +300,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>dog, wild dog</t>
+      <t>wallaroo</t>
     </r>
     <r>
       <rPr>
@@ -212,7 +310,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> miri</t>
+      <t xml:space="preserve"> walarru</t>
     </r>
   </si>
   <si>
@@ -220,58 +318,33 @@
       <rPr>
         <i/>
         <sz val="12"/>
-        <color rgb="FF9C5700"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>parrot</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF9C5700"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> wagarala</t>
-    </r>
-  </si>
-  <si>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>black kangaroo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> walaru [</t>
+    </r>
     <r>
       <rPr>
         <i/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>eastern bettong</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> dirru</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
         <color rgb="FF006100"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>kangaroo rat</t>
+      <t>wallaroo</t>
     </r>
     <r>
       <rPr>
@@ -281,119 +354,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> dhurrawaay</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>kangaroo-rat</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> dhurawayi</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>wallaroo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> yulama</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>wallaroo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> walarru</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>black kangaroo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> walaru [</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>wallaroo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve"> wambuyn]</t>
     </r>
   </si>
@@ -404,52 +364,6 @@
     <t>jimbuck</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sheep</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> dyumbag</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>brush-tailed rock wallaby</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> wirrang</t>
-    </r>
-  </si>
-  <si>
     <t>?grey box</t>
   </si>
   <si>
@@ -519,12 +433,12 @@
     <t>name for 'jimbuck' among the people of 'the Hawksbury mountains'</t>
   </si>
   <si>
+    <t>Sydney (Troy)</t>
+  </si>
+  <si>
     <t>Wiradjuri</t>
   </si>
   <si>
-    <t>HRLM</t>
-  </si>
-  <si>
     <t>swamp wallaby</t>
   </si>
   <si>
@@ -550,13 +464,67 @@
   </si>
   <si>
     <t>wiragala *australian ringneck*</t>
+  </si>
+  <si>
+    <t>wakalarr ~ wakilarr *red parrot; rosella*</t>
+  </si>
+  <si>
+    <t>wagarala *parrot*</t>
+  </si>
+  <si>
+    <t>HRLM (Lissarague)</t>
+  </si>
+  <si>
+    <t>bugari</t>
+  </si>
+  <si>
+    <t>djubi</t>
+  </si>
+  <si>
+    <t>guganagina</t>
+  </si>
+  <si>
+    <t>dilbanyi *ring–to ring as a bell*</t>
+  </si>
+  <si>
+    <t>wuragal</t>
+  </si>
+  <si>
+    <t>guriyayil *parrot*; warin *ranbow lorikeet*</t>
+  </si>
+  <si>
+    <t>ganyimung *Gaimard's rat-kangaroo*</t>
+  </si>
+  <si>
+    <t>wularu *wallaroo*; banggaray *swamp wallaby*</t>
+  </si>
+  <si>
+    <t>wulaba</t>
+  </si>
+  <si>
+    <t>wan-guy *wallaby*</t>
+  </si>
+  <si>
+    <t>wirayn</t>
+  </si>
+  <si>
+    <t>wirrang</t>
+  </si>
+  <si>
+    <t>dyumbag</t>
+  </si>
+  <si>
+    <t>Jehu</t>
+  </si>
+  <si>
+    <t>whip-bird</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -603,18 +571,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="4">
@@ -658,7 +618,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -693,6 +653,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -710,6 +676,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Michael Falk" id="{5BCB1E09-1FE0-BF4C-8CD3-9F193ED65AF9}" userId="5c4c5605ec1cfa45" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1007,26 +979,41 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="H9" dT="2024-03-05T06:21:34.52" personId="{5BCB1E09-1FE0-BF4C-8CD3-9F193ED65AF9}" id="{E30B1568-396D-DE40-8086-3F6C76070A41}">
+    <text>Is this the same thing as an Eastern Bettong?</text>
+  </threadedComment>
+  <threadedComment ref="C14" dT="2024-03-05T06:26:12.41" personId="{5BCB1E09-1FE0-BF4C-8CD3-9F193ED65AF9}" id="{BADB9721-4897-DE4B-B160-39F9BE0D2D9C}">
+    <text>Check this observation of Dixon’s</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3C4BAA-B610-2F49-ADBE-EF65A048E4DA}">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3C4BAA-B610-2F49-ADBE-EF65A048E4DA}">
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.5" customWidth="1"/>
     <col min="5" max="5" width="31.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="49.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1037,10 +1024,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>27</v>
@@ -1048,8 +1035,11 @@
       <c r="G1" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="H1" s="12" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1060,19 +1050,19 @@
         <v>5</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1083,19 +1073,22 @@
         <v>8</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -1106,19 +1099,22 @@
         <v>11</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -1126,22 +1122,25 @@
         <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
+      </c>
+      <c r="H5" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -1149,16 +1148,19 @@
         <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G6" s="4"/>
+      <c r="H6" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
@@ -1166,22 +1168,25 @@
         <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="H7" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="255" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -1189,18 +1194,23 @@
         <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="7" t="s">
-        <v>34</v>
+        <v>75</v>
+      </c>
+      <c r="H8" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
@@ -1211,19 +1221,22 @@
         <v>25</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="H9" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -1231,20 +1244,20 @@
         <v>22</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="204" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
@@ -1252,55 +1265,71 @@
         <v>26</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>72</v>
-      </c>
       <c r="D13" s="6" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>31</v>
+        <v>87</v>
+      </c>
+      <c r="H13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/harpur-lang.xlsx
+++ b/data/harpur-lang.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/falk/github/articles/harpur-dunlop-wulatji/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408193BE-6D69-384A-8F7B-FD2C61939A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E49A3E8-A28F-E345-A43C-E1E17844F737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7580" yWindow="1400" windowWidth="29480" windowHeight="21680" xr2:uid="{FC4BB2E0-FBC5-FD45-B13A-126658919CD1}"/>
+    <workbookView xWindow="65300" yWindow="-24480" windowWidth="29480" windowHeight="17180" xr2:uid="{FC4BB2E0-FBC5-FD45-B13A-126658919CD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,35 +33,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={E30B1568-396D-DE40-8086-3F6C76070A41}</author>
-    <author>tc={BADB9721-4897-DE4B-B160-39F9BE0D2D9C}</author>
-  </authors>
-  <commentList>
-    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{E30B1568-396D-DE40-8086-3F6C76070A41}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Is this the same thing as an Eastern Bettong?</t>
-      </text>
-    </comment>
-    <comment ref="C14" authorId="1" shapeId="0" xr:uid="{BADB9721-4897-DE4B-B160-39F9BE0D2D9C}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Check this observation of Dixon’s</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
   <si>
     <t>Harpur’s word</t>
   </si>
@@ -120,9 +93,6 @@
     <t>duaralli</t>
   </si>
   <si>
-    <t>‘the kangaroo-rat’</t>
-  </si>
-  <si>
     <t>maroo</t>
   </si>
   <si>
@@ -135,12 +105,6 @@
     <t>eastern bettong</t>
   </si>
   <si>
-    <t>‘wallaroo’; 'a species of kangaroo which is peculiar to the higher and more difficult mountains'; 'the male … [is] almost black, and the female … [is] a sort of cream color'</t>
-  </si>
-  <si>
-    <t>‘blue-mountain parrot’; 'Their pinions washed with verdant gold'; '… the lustrous green of the whole back and wings, the bright yellow of the breast, and the indescribable blue of the head, do indeed compose for it an array most royal.'</t>
-  </si>
-  <si>
     <t>whirring</t>
   </si>
   <si>
@@ -150,57 +114,21 @@
     <t>?grey box</t>
   </si>
   <si>
-    <t>yurraga</t>
-  </si>
-  <si>
     <t>yaraay</t>
   </si>
   <si>
-    <t>budha-rang</t>
-  </si>
-  <si>
     <t>pitjang</t>
   </si>
   <si>
-    <t>gindhaany</t>
-  </si>
-  <si>
     <t>wilay *possum*</t>
   </si>
   <si>
-    <t>gindang</t>
-  </si>
-  <si>
-    <t>gugubarra</t>
-  </si>
-  <si>
-    <t>kukaparr</t>
-  </si>
-  <si>
-    <t>gugurrgaagaa</t>
-  </si>
-  <si>
-    <t>murrung *grey box*</t>
-  </si>
-  <si>
-    <t>maru *thorny bush*</t>
-  </si>
-  <si>
-    <t>mawurr *acacia farnesiana*</t>
-  </si>
-  <si>
     <t>‘a little shag-haired species of kangaroo’; metaphorically, 'sheep'</t>
   </si>
   <si>
     <t>name for 'jimbuck' among the people of 'the Hawksbury mountains'</t>
   </si>
   <si>
-    <t>Sydney (Troy)</t>
-  </si>
-  <si>
-    <t>Wiradjuri</t>
-  </si>
-  <si>
     <t>rainbow lorikeet</t>
   </si>
   <si>
@@ -216,85 +144,115 @@
     <t>wild dog</t>
   </si>
   <si>
-    <t>warragul</t>
-  </si>
-  <si>
-    <t>waRikal</t>
-  </si>
-  <si>
     <t>wiragala *australian ringneck*</t>
   </si>
   <si>
     <t>wakalarr ~ wakilarr *red parrot; rosella*</t>
   </si>
   <si>
-    <t>wagarala *parrot*</t>
-  </si>
-  <si>
-    <t>HRLM (Lissarague)</t>
-  </si>
-  <si>
-    <t>dilbanyi *ring–to ring as a bell*</t>
-  </si>
-  <si>
-    <t>wuragal</t>
-  </si>
-  <si>
-    <t>guriyayil *parrot*; warin *ranbow lorikeet*</t>
-  </si>
-  <si>
-    <t>wirayn</t>
-  </si>
-  <si>
     <t>wirrang</t>
   </si>
   <si>
-    <t>dyumbag</t>
-  </si>
-  <si>
-    <t>Jehu</t>
-  </si>
-  <si>
-    <t>dirru *eastern bettong*</t>
-  </si>
-  <si>
-    <t>walarru *wallaroo*</t>
-  </si>
-  <si>
-    <t>walaru *black kangaroo*</t>
-  </si>
-  <si>
-    <t>bird [...] commonly called the "coachman"'</t>
-  </si>
-  <si>
-    <t>eastern whip-bird</t>
-  </si>
-  <si>
     <t>eastern wallaroo</t>
   </si>
   <si>
-    <t>wularu *wallaroo*</t>
-  </si>
-  <si>
     <t>miri *dog, wild dog*</t>
   </si>
   <si>
+    <t>wayiring *wallaby*</t>
+  </si>
+  <si>
+    <t>Referent</t>
+  </si>
+  <si>
+    <t>‘wallaroo’; 'the male … [is] almost black, and the female … [is] a sort of cream color'</t>
+  </si>
+  <si>
+    <t>‘blue-mountain parrot'</t>
+  </si>
+  <si>
+    <t>Darkinyung</t>
+  </si>
+  <si>
+    <t>HRLM</t>
+  </si>
+  <si>
+    <t>Gamilaraay</t>
+  </si>
+  <si>
+    <t>bagu</t>
+  </si>
+  <si>
+    <t>garrawir</t>
+  </si>
+  <si>
+    <t>banbandhuluwi</t>
+  </si>
+  <si>
+    <t>wan.guy</t>
+  </si>
+  <si>
+    <t>yulama</t>
+  </si>
+  <si>
+    <t>**gindang**</t>
+  </si>
+  <si>
+    <t>**waRikal**</t>
+  </si>
+  <si>
+    <t>**wagarala** *parrot*</t>
+  </si>
+  <si>
+    <t>**dhurrawaay**</t>
+  </si>
+  <si>
+    <t>**walaru** *black kangaroo*</t>
+  </si>
+  <si>
+    <t>**wirayn**</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>yurraga (Wiradjuri); yuraga (Dhurga)</t>
+  </si>
+  <si>
+    <t>budha-rang (Wiradjuri)</t>
+  </si>
+  <si>
+    <t>dilbanyi *ring–to ring as a bell* (Sydney)</t>
+  </si>
+  <si>
+    <t>wuragal (Sydney)</t>
+  </si>
+  <si>
+    <t>wularu (Sydney)</t>
+  </si>
+  <si>
+    <t>gugubarra (Wiradjuri)</t>
+  </si>
+  <si>
+    <t>panyal</t>
+  </si>
+  <si>
+    <t>**maru** *thorny bush*</t>
+  </si>
+  <si>
+    <t>**dhimba** *sheep*</t>
+  </si>
+  <si>
+    <t>**kukaparr**</t>
+  </si>
+  <si>
+    <t>**gugurrgaagaa**</t>
+  </si>
+  <si>
     <t>dhurawayi</t>
   </si>
   <si>
-    <t>wayiring *wallaby*</t>
-  </si>
-  <si>
-    <t>dhurrawaay</t>
-  </si>
-  <si>
-    <t>Darkingyung (Jones 2008)</t>
-  </si>
-  <si>
-    <t>Gamilaraay (Ash, Giacon and Lissarrague 2003)</t>
-  </si>
-  <si>
-    <t>Referent</t>
+    <t xml:space="preserve">the kangaroo-rat'; attributed to 'the blacks of the Hunter' in 1843, but to 'blacks of the interior' in 1867 (h209-df) </t>
   </si>
 </sst>
 </file>
@@ -338,17 +296,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -364,12 +318,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Michael Falk" id="{5BCB1E09-1FE0-BF4C-8CD3-9F193ED65AF9}" userId="5c4c5605ec1cfa45" providerId="Windows Live"/>
-</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -667,67 +615,52 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="F9" dT="2024-03-05T06:21:34.52" personId="{5BCB1E09-1FE0-BF4C-8CD3-9F193ED65AF9}" id="{E30B1568-396D-DE40-8086-3F6C76070A41}">
-    <text>Is this the same thing as an Eastern Bettong?</text>
-  </threadedComment>
-  <threadedComment ref="C14" dT="2024-03-05T06:26:12.41" personId="{5BCB1E09-1FE0-BF4C-8CD3-9F193ED65AF9}" id="{BADB9721-4897-DE4B-B160-39F9BE0D2D9C}">
-    <text>Check this observation of Dixon’s</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3C4BAA-B610-2F49-ADBE-EF65A048E4DA}">
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3C4BAA-B610-2F49-ADBE-EF65A048E4DA}">
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="74" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.83203125" customWidth="1"/>
+    <col min="6" max="6" width="49.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.5" customWidth="1"/>
-    <col min="8" max="8" width="49.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="C1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -737,14 +670,17 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
+      <c r="E2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
       <c r="G2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -755,13 +691,16 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -772,16 +711,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -789,19 +728,19 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>69</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -809,13 +748,16 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="G6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -823,156 +765,127 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" t="s">
-        <v>73</v>
+      <c r="F13" t="s">
+        <v>51</v>
       </c>
       <c r="G13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/harpur-lang.xlsx
+++ b/data/harpur-lang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/falk/github/articles/harpur-dunlop-wulatji/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E49A3E8-A28F-E345-A43C-E1E17844F737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4332F896-8DFA-174E-AB01-E928E5DCC59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="65300" yWindow="-24480" windowWidth="29480" windowHeight="17180" xr2:uid="{FC4BB2E0-FBC5-FD45-B13A-126658919CD1}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" xr2:uid="{FC4BB2E0-FBC5-FD45-B13A-126658919CD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,48 +45,21 @@
     <t>Euroka</t>
   </si>
   <si>
-    <t>‘an aboriginal name of the sun’</t>
-  </si>
-  <si>
-    <t>The sun</t>
-  </si>
-  <si>
     <t>bidawong</t>
   </si>
   <si>
-    <t>‘flying squirrel’</t>
-  </si>
-  <si>
-    <t>Sugar glider</t>
-  </si>
-  <si>
     <t>kindyne</t>
   </si>
   <si>
-    <t>‘ring-tailed possum’</t>
-  </si>
-  <si>
-    <t>Ring-tailed possum</t>
-  </si>
-  <si>
     <t>gooburra</t>
   </si>
   <si>
-    <t>‘the large kind of king-fisher which is commonly known by the tasteful and poetic sobriquet of the Laughing Jackass’</t>
-  </si>
-  <si>
     <t>teleltella</t>
   </si>
   <si>
-    <t>‘a large and solitary kind of bell-bird’</t>
-  </si>
-  <si>
     <t>warragl</t>
   </si>
   <si>
-    <t>‘an aboriginal name of the native dog’</t>
-  </si>
-  <si>
     <t>yerowala</t>
   </si>
   <si>
@@ -96,9 +69,6 @@
     <t>maroo</t>
   </si>
   <si>
-    <t>‘a sort of brush iron-wood’</t>
-  </si>
-  <si>
     <t>wallaroo</t>
   </si>
   <si>
@@ -123,12 +93,6 @@
     <t>wilay *possum*</t>
   </si>
   <si>
-    <t>‘a little shag-haired species of kangaroo’; metaphorically, 'sheep'</t>
-  </si>
-  <si>
-    <t>name for 'jimbuck' among the people of 'the Hawksbury mountains'</t>
-  </si>
-  <si>
     <t>rainbow lorikeet</t>
   </si>
   <si>
@@ -144,15 +108,9 @@
     <t>wild dog</t>
   </si>
   <si>
-    <t>wiragala *australian ringneck*</t>
-  </si>
-  <si>
     <t>wakalarr ~ wakilarr *red parrot; rosella*</t>
   </si>
   <si>
-    <t>wirrang</t>
-  </si>
-  <si>
     <t>eastern wallaroo</t>
   </si>
   <si>
@@ -165,12 +123,6 @@
     <t>Referent</t>
   </si>
   <si>
-    <t>‘wallaroo’; 'the male … [is] almost black, and the female … [is] a sort of cream color'</t>
-  </si>
-  <si>
-    <t>‘blue-mountain parrot'</t>
-  </si>
-  <si>
     <t>Darkinyung</t>
   </si>
   <si>
@@ -246,13 +198,61 @@
     <t>**kukaparr**</t>
   </si>
   <si>
-    <t>**gugurrgaagaa**</t>
-  </si>
-  <si>
     <t>dhurawayi</t>
   </si>
   <si>
-    <t xml:space="preserve">the kangaroo-rat'; attributed to 'the blacks of the Hunter' in 1843, but to 'blacks of the interior' in 1867 (h209-df) </t>
+    <t>wiragala *australian ringneck* (Wiradjuri)</t>
+  </si>
+  <si>
+    <t>wirrang (Wiradjuri)</t>
+  </si>
+  <si>
+    <t>"an aboriginal name of the sun"</t>
+  </si>
+  <si>
+    <t>"flying squirrel"</t>
+  </si>
+  <si>
+    <t>"ring-tailed possum"</t>
+  </si>
+  <si>
+    <t>"the large kind of king-fisher which is commonly known by the tasteful and poetic sobriquet of the Laughing Jackass"</t>
+  </si>
+  <si>
+    <t>"a large and solitary kind of bell-bird"</t>
+  </si>
+  <si>
+    <t>"an aboriginal name of the native dog"</t>
+  </si>
+  <si>
+    <t>"blue-mountain parrot"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"the kangaroo-rat;" attributed to "the blacks of the Hunter" in 1843, but to "blacks of the interior" in 1867 (h209-df) </t>
+  </si>
+  <si>
+    <t>"a sort of brush iron-wood"</t>
+  </si>
+  <si>
+    <t>"wallaroo"; "the male … [is] almost black, and the female … [is] a sort of cream color"</t>
+  </si>
+  <si>
+    <t>"a little shag-haired species of kangaroo;" metaphorically, "sheep"</t>
+  </si>
+  <si>
+    <t>name for "jimbuck" among the people of "the Hawksbury mountains"</t>
+  </si>
+  <si>
+    <t>glider</t>
+  </si>
+  <si>
+    <t>ring-tailed possum</t>
+  </si>
+  <si>
+    <t>the sun</t>
+  </si>
+  <si>
+    <t>gugurrgaagaa</t>
   </si>
 </sst>
 </file>
@@ -620,10 +620,10 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -645,19 +645,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -665,224 +665,224 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
         <v>34</v>
       </c>
-      <c r="F6" t="s">
-        <v>50</v>
-      </c>
       <c r="G6" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
         <v>55</v>
-      </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/data/harpur-lang.xlsx
+++ b/data/harpur-lang.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/falk/github/articles/harpur-dunlop-wulatji/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4332F896-8DFA-174E-AB01-E928E5DCC59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4433BC96-8610-F04D-A2B7-7F24647B1F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" xr2:uid="{FC4BB2E0-FBC5-FD45-B13A-126658919CD1}"/>
   </bookViews>
@@ -78,9 +78,6 @@
     <t>whirring</t>
   </si>
   <si>
-    <t>jimbuck</t>
-  </si>
-  <si>
     <t>?grey box</t>
   </si>
   <si>
@@ -253,6 +250,9 @@
   </si>
   <si>
     <t>gugurrgaagaa</t>
+  </si>
+  <si>
+    <t>jimbuc</t>
   </si>
 </sst>
 </file>
@@ -623,7 +623,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -645,19 +645,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -665,19 +665,19 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -685,19 +685,19 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -705,19 +705,19 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -725,19 +725,19 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -745,16 +745,16 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -762,19 +762,19 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -782,19 +782,19 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -802,16 +802,16 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -819,13 +819,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -833,33 +833,33 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -867,22 +867,22 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/data/harpur-lang.xlsx
+++ b/data/harpur-lang.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/falk/github/articles/harpur-dunlop-wulatji/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4433BC96-8610-F04D-A2B7-7F24647B1F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94ED9664-FC8B-5949-8054-8990F8707162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" xr2:uid="{FC4BB2E0-FBC5-FD45-B13A-126658919CD1}"/>
+    <workbookView xWindow="20" yWindow="760" windowWidth="30240" windowHeight="17200" xr2:uid="{FC4BB2E0-FBC5-FD45-B13A-126658919CD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -620,10 +620,10 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
